--- a/data/trdplan_auto/trdplan_mxz-20200819.xlsx
+++ b/data/trdplan_auto/trdplan_mxz-20200819.xlsx
@@ -614,8 +614,8 @@
 银转证（招商普通）295万</t>
   </si>
   <si>
-    <t>期转银110万
-银转证95万</t>
+    <t>期转银85万
+银转证60万</t>
   </si>
   <si>
     <t>期转银30万
@@ -785,7 +785,7 @@
   </si>
   <si>
     <t>开1手IC多头，
-目标持仓17150万，12手IC多头（平4手IC多头）</t>
+目标持仓16950万，13手IC多头（平3手IC多头）</t>
   </si>
   <si>
     <t>卖货基1650万，目标持仓1550万，11手IC空头（开11手IC空头）</t>
@@ -3780,7 +3780,7 @@
         <v>426</v>
       </c>
       <c r="F18">
-        <v>171341827.040882</v>
+        <v>169628408.770474</v>
       </c>
       <c r="G18">
         <v>166107082.6899999</v>
